--- a/Code/Results/Cases/Case_1_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.19176141360982</v>
+        <v>13.06924433320117</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.871266077566047</v>
+        <v>4.485380041099008</v>
       </c>
       <c r="E2">
-        <v>11.38701231540827</v>
+        <v>18.29363633744745</v>
       </c>
       <c r="F2">
-        <v>15.95696560069644</v>
+        <v>21.51286486881103</v>
       </c>
       <c r="G2">
-        <v>19.03569453223298</v>
+        <v>23.98580428202334</v>
       </c>
       <c r="H2">
-        <v>7.901146811424647</v>
+        <v>13.10355686862735</v>
       </c>
       <c r="I2">
-        <v>15.55524401167876</v>
+        <v>25.35969145240661</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.35321959619311</v>
+        <v>10.6471623488218</v>
       </c>
       <c r="L2">
-        <v>5.974207174859972</v>
+        <v>8.731502971933187</v>
       </c>
       <c r="M2">
-        <v>9.350968870430485</v>
+        <v>13.89023653698495</v>
       </c>
       <c r="N2">
-        <v>12.7675562007882</v>
+        <v>19.37426800582106</v>
       </c>
       <c r="O2">
-        <v>12.57209137914319</v>
+        <v>19.30405114390045</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.62652110207831</v>
+        <v>12.96024306971328</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.655541228444783</v>
+        <v>4.401481974132078</v>
       </c>
       <c r="E3">
-        <v>11.51318247363269</v>
+        <v>18.34765482451671</v>
       </c>
       <c r="F3">
-        <v>15.58378562736951</v>
+        <v>21.51568994599208</v>
       </c>
       <c r="G3">
-        <v>18.54961766486332</v>
+        <v>23.98416585303979</v>
       </c>
       <c r="H3">
-        <v>7.925041926303376</v>
+        <v>13.13832966020087</v>
       </c>
       <c r="I3">
-        <v>15.7977308474944</v>
+        <v>25.46125114090707</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.75670640846764</v>
+        <v>10.39280996146833</v>
       </c>
       <c r="L3">
-        <v>5.796957938240011</v>
+        <v>8.71640375954947</v>
       </c>
       <c r="M3">
-        <v>9.076394131241694</v>
+        <v>13.86540324609726</v>
       </c>
       <c r="N3">
-        <v>12.9259689495981</v>
+        <v>19.42594937714618</v>
       </c>
       <c r="O3">
-        <v>12.50331704814882</v>
+        <v>19.35137978003875</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.266851341718</v>
+        <v>12.89496880521022</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.517232539491375</v>
+        <v>4.3484008653672</v>
       </c>
       <c r="E4">
-        <v>11.59413226016416</v>
+        <v>18.38272950782679</v>
       </c>
       <c r="F4">
-        <v>15.36309843362277</v>
+        <v>21.52288157414488</v>
       </c>
       <c r="G4">
-        <v>18.26427825224813</v>
+        <v>23.99070893787583</v>
       </c>
       <c r="H4">
-        <v>7.944123893148562</v>
+        <v>13.16156827907988</v>
       </c>
       <c r="I4">
-        <v>15.95405153749432</v>
+        <v>25.5273002452715</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.3746800981484</v>
+        <v>10.23181876199396</v>
       </c>
       <c r="L4">
-        <v>5.68758913650676</v>
+        <v>8.708352780309589</v>
       </c>
       <c r="M4">
-        <v>8.906570911669084</v>
+        <v>13.85192404418803</v>
       </c>
       <c r="N4">
-        <v>13.02607066680796</v>
+        <v>19.45929581293369</v>
       </c>
       <c r="O4">
-        <v>12.47052113346848</v>
+        <v>19.38430473405208</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.11729274951565</v>
+        <v>12.86880968361858</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.459439414336094</v>
+        <v>4.326390220291992</v>
       </c>
       <c r="E5">
-        <v>11.62799546217052</v>
+        <v>18.3975034773938</v>
       </c>
       <c r="F5">
-        <v>15.27538714211017</v>
+        <v>21.52718537314339</v>
       </c>
       <c r="G5">
-        <v>18.15141521393776</v>
+        <v>23.99527317130263</v>
       </c>
       <c r="H5">
-        <v>7.952977565511721</v>
+        <v>13.17151309837521</v>
       </c>
       <c r="I5">
-        <v>16.01959467326722</v>
+        <v>25.55514534262433</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.21515814234026</v>
+        <v>10.16505884110655</v>
       </c>
       <c r="L5">
-        <v>5.642950590494128</v>
+        <v>8.705381296979745</v>
       </c>
       <c r="M5">
-        <v>8.837158710234084</v>
+        <v>13.84688009318463</v>
       </c>
       <c r="N5">
-        <v>13.06758401432195</v>
+        <v>19.47329161990058</v>
       </c>
       <c r="O5">
-        <v>12.4594717703438</v>
+        <v>19.39869264064093</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.09228394060704</v>
+        <v>12.86449331346763</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.449757784556365</v>
+        <v>4.322712875307767</v>
       </c>
       <c r="E6">
-        <v>11.63367131147291</v>
+        <v>18.39998575511785</v>
       </c>
       <c r="F6">
-        <v>15.2609595540791</v>
+        <v>21.52798296181601</v>
       </c>
       <c r="G6">
-        <v>18.13288384125604</v>
+        <v>23.99614564389354</v>
       </c>
       <c r="H6">
-        <v>7.954511886808484</v>
+        <v>13.17319311451313</v>
       </c>
       <c r="I6">
-        <v>16.03058850542977</v>
+        <v>25.5598251842191</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.18844146602682</v>
+        <v>10.15390539862256</v>
       </c>
       <c r="L6">
-        <v>5.635536148126335</v>
+        <v>8.704906640297544</v>
       </c>
       <c r="M6">
-        <v>8.825623413982209</v>
+        <v>13.84606978143823</v>
       </c>
       <c r="N6">
-        <v>13.07452105972387</v>
+        <v>19.47564021735171</v>
       </c>
       <c r="O6">
-        <v>12.45777513046448</v>
+        <v>19.4011403341818</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.26484618839425</v>
+        <v>12.89461419737818</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.516458857687413</v>
+        <v>4.348105539729014</v>
       </c>
       <c r="E7">
-        <v>11.59458540571627</v>
+        <v>18.38292680660327</v>
       </c>
       <c r="F7">
-        <v>15.36190641483411</v>
+        <v>21.52293405621753</v>
       </c>
       <c r="G7">
-        <v>18.26274216809236</v>
+        <v>23.99076280997733</v>
       </c>
       <c r="H7">
-        <v>7.944238974790135</v>
+        <v>13.1617004753798</v>
       </c>
       <c r="I7">
-        <v>15.95492805486642</v>
+        <v>25.52767200838219</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.37254411514838</v>
+        <v>10.23092301193638</v>
       </c>
       <c r="L7">
-        <v>5.686987319606981</v>
+        <v>8.708311450012204</v>
       </c>
       <c r="M7">
-        <v>8.905635496672817</v>
+        <v>13.85185419661028</v>
       </c>
       <c r="N7">
-        <v>13.02662760007021</v>
+        <v>19.45948291651339</v>
       </c>
       <c r="O7">
-        <v>12.47036282139346</v>
+        <v>19.38449484561322</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.99958286834841</v>
+        <v>13.03133285618357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.798121166128831</v>
+        <v>4.456785743106589</v>
       </c>
       <c r="E8">
-        <v>11.42979341529074</v>
+        <v>18.31186680859607</v>
       </c>
       <c r="F8">
-        <v>15.82659967012435</v>
+        <v>21.51270716014581</v>
       </c>
       <c r="G8">
-        <v>18.8654474394857</v>
+        <v>23.98367274953587</v>
       </c>
       <c r="H8">
-        <v>7.908451493882042</v>
+        <v>13.11515476626303</v>
       </c>
       <c r="I8">
-        <v>15.63729313191648</v>
+        <v>25.39394400359402</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.15088030999487</v>
+        <v>10.56049447365032</v>
       </c>
       <c r="L8">
-        <v>5.913241041728832</v>
+        <v>8.726045154695306</v>
       </c>
       <c r="M8">
-        <v>9.256610920425384</v>
+        <v>13.88130956598467</v>
       </c>
       <c r="N8">
-        <v>12.82159325785804</v>
+        <v>19.39175341507602</v>
       </c>
       <c r="O8">
-        <v>12.54638784112645</v>
+        <v>19.31956722202699</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.33386698936881</v>
+        <v>13.3114224389465</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.302563791211992</v>
+        <v>4.656874079574178</v>
       </c>
       <c r="E9">
-        <v>11.13425473142565</v>
+        <v>18.18759618227186</v>
       </c>
       <c r="F9">
-        <v>16.800423658092</v>
+        <v>21.53587514517894</v>
       </c>
       <c r="G9">
-        <v>20.14578294376633</v>
+        <v>24.02961823933182</v>
       </c>
       <c r="H9">
-        <v>7.874689926103557</v>
+        <v>13.03885247344874</v>
       </c>
       <c r="I9">
-        <v>15.07479493715146</v>
+        <v>25.16092622732621</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.54776887366735</v>
+        <v>11.16625612659289</v>
       </c>
       <c r="L9">
-        <v>6.350004107771532</v>
+        <v>8.770380412890191</v>
       </c>
       <c r="M9">
-        <v>9.930921624801108</v>
+        <v>13.95290867793949</v>
       </c>
       <c r="N9">
-        <v>12.44164810664959</v>
+        <v>19.2716932574986</v>
       </c>
       <c r="O9">
-        <v>12.77259857514284</v>
+        <v>19.22295863257616</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.24231479649205</v>
+        <v>13.52296049736657</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.642423649941041</v>
+        <v>4.795189347689069</v>
       </c>
       <c r="E10">
-        <v>10.93397663077682</v>
+        <v>18.1054105883442</v>
       </c>
       <c r="F10">
-        <v>17.54797891953613</v>
+        <v>21.57909281739151</v>
       </c>
       <c r="G10">
-        <v>21.13866495306053</v>
+        <v>24.09969372003662</v>
       </c>
       <c r="H10">
-        <v>7.874062692545157</v>
+        <v>12.99191222888087</v>
       </c>
       <c r="I10">
-        <v>14.70055030629883</v>
+        <v>25.00745266921532</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.49055645585488</v>
+        <v>11.58379523528498</v>
       </c>
       <c r="L10">
-        <v>6.663439270806207</v>
+        <v>8.808608961329664</v>
       </c>
       <c r="M10">
-        <v>10.41275873280526</v>
+        <v>14.01367192020838</v>
       </c>
       <c r="N10">
-        <v>12.17546111041325</v>
+        <v>19.19119420456903</v>
       </c>
       <c r="O10">
-        <v>12.98859519132892</v>
+        <v>19.17076253089757</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63895886218876</v>
+        <v>13.62010802239498</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.790124189211709</v>
+        <v>4.856083541605948</v>
       </c>
       <c r="E11">
-        <v>10.84653746300743</v>
+        <v>18.06998564500184</v>
       </c>
       <c r="F11">
-        <v>17.8937785949247</v>
+        <v>21.60439080353468</v>
       </c>
       <c r="G11">
-        <v>21.60005923983468</v>
+        <v>24.13938999321795</v>
       </c>
       <c r="H11">
-        <v>7.879457157482962</v>
+        <v>12.97253586180224</v>
       </c>
       <c r="I11">
-        <v>14.53934666089233</v>
+        <v>24.94146356133702</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.90064377393482</v>
+        <v>11.76725159796561</v>
       </c>
       <c r="L11">
-        <v>6.803823733435872</v>
+        <v>8.827187595347601</v>
       </c>
       <c r="M11">
-        <v>10.62808799604058</v>
+        <v>14.04302230893867</v>
       </c>
       <c r="N11">
-        <v>12.05706429036838</v>
+        <v>19.1562326645736</v>
       </c>
       <c r="O11">
-        <v>13.09816246622166</v>
+        <v>19.15110492015229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.7867053883555</v>
+        <v>13.65699879069764</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.845047438282084</v>
+        <v>4.878840326636509</v>
       </c>
       <c r="E12">
-        <v>10.81395613761378</v>
+        <v>18.05685202670864</v>
       </c>
       <c r="F12">
-        <v>18.02545001272306</v>
+        <v>21.61477540980284</v>
       </c>
       <c r="G12">
-        <v>21.77604738383263</v>
+        <v>24.15553773066539</v>
       </c>
       <c r="H12">
-        <v>7.882352209365393</v>
+        <v>12.96548265045547</v>
       </c>
       <c r="I12">
-        <v>14.47965950914085</v>
+        <v>24.91702417847883</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.05318988696797</v>
+        <v>11.83575077247964</v>
       </c>
       <c r="L12">
-        <v>6.856625297671499</v>
+        <v>8.834389968619906</v>
       </c>
       <c r="M12">
-        <v>10.70900575058176</v>
+        <v>14.05437641045972</v>
       </c>
       <c r="N12">
-        <v>12.01260869188963</v>
+        <v>19.14323098406062</v>
       </c>
       <c r="O12">
-        <v>13.14131194319171</v>
+        <v>19.1442492278876</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.75499555271321</v>
+        <v>13.64904957662977</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.833263757238571</v>
+        <v>4.873952870354127</v>
       </c>
       <c r="E13">
-        <v>10.82094949131659</v>
+        <v>18.0596681037258</v>
       </c>
       <c r="F13">
-        <v>17.99706150379448</v>
+        <v>21.61250320914807</v>
       </c>
       <c r="G13">
-        <v>21.73809076020176</v>
+        <v>24.15201056461905</v>
       </c>
       <c r="H13">
-        <v>7.881690235170509</v>
+        <v>12.96698904750698</v>
       </c>
       <c r="I13">
-        <v>14.49245286574102</v>
+        <v>24.92226322435664</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.02045901125628</v>
+        <v>11.82104205850964</v>
       </c>
       <c r="L13">
-        <v>6.845270130194811</v>
+        <v>8.832831441927606</v>
       </c>
       <c r="M13">
-        <v>10.69160735731295</v>
+        <v>14.05192053666958</v>
       </c>
       <c r="N13">
-        <v>12.02216629323652</v>
+        <v>19.14602058018018</v>
       </c>
       <c r="O13">
-        <v>13.13194469038818</v>
+        <v>19.14569955569397</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65116355975004</v>
+        <v>13.62314114671401</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.79466302876517</v>
+        <v>4.857961880299221</v>
       </c>
       <c r="E14">
-        <v>10.84384633951784</v>
+        <v>18.06889950785703</v>
       </c>
       <c r="F14">
-        <v>17.90459730635809</v>
+        <v>21.60522905901447</v>
       </c>
       <c r="G14">
-        <v>21.61451318773995</v>
+        <v>24.14069617415049</v>
       </c>
       <c r="H14">
-        <v>7.87967805001241</v>
+        <v>12.97194989466812</v>
       </c>
       <c r="I14">
-        <v>14.5344086131023</v>
+        <v>24.93944191636998</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.91324905792066</v>
+        <v>11.77290675485394</v>
       </c>
       <c r="L14">
-        <v>6.808175171824077</v>
+        <v>8.827776813572646</v>
       </c>
       <c r="M14">
-        <v>10.63475798963217</v>
+        <v>14.04395164798608</v>
       </c>
       <c r="N14">
-        <v>12.05339936055532</v>
+        <v>19.15515825386256</v>
       </c>
       <c r="O14">
-        <v>13.10167898655232</v>
+        <v>19.15052910687655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.58724220656646</v>
+        <v>13.60728405763978</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.770887341880106</v>
+        <v>4.848127221136493</v>
       </c>
       <c r="E15">
-        <v>10.85794042484658</v>
+        <v>18.07459057802586</v>
       </c>
       <c r="F15">
-        <v>17.84805183601616</v>
+        <v>21.60087805011888</v>
       </c>
       <c r="G15">
-        <v>21.53897979703395</v>
+        <v>24.13391078435856</v>
       </c>
       <c r="H15">
-        <v>7.878557578417507</v>
+        <v>12.97502556489445</v>
       </c>
       <c r="I15">
-        <v>14.56028626812584</v>
+        <v>24.95003586124103</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.84722128531718</v>
+        <v>11.74329483086441</v>
       </c>
       <c r="L15">
-        <v>6.785405503673964</v>
+        <v>8.824702345811382</v>
       </c>
       <c r="M15">
-        <v>10.59985313217101</v>
+        <v>14.03910151377501</v>
       </c>
       <c r="N15">
-        <v>12.07257958169943</v>
+        <v>19.16078624515813</v>
       </c>
       <c r="O15">
-        <v>13.08335726974535</v>
+        <v>19.15356396340839</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.21605297556651</v>
+        <v>13.51662767744892</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.632630794271971</v>
+        <v>4.791168025644978</v>
       </c>
       <c r="E16">
-        <v>10.93976500113815</v>
+        <v>18.10776507596857</v>
       </c>
       <c r="F16">
-        <v>17.52548677204756</v>
+        <v>21.57755249971608</v>
       </c>
       <c r="G16">
-        <v>21.10869610584805</v>
+        <v>24.09725610040439</v>
       </c>
       <c r="H16">
-        <v>7.87382747788268</v>
+        <v>12.99321829470111</v>
       </c>
       <c r="I16">
-        <v>14.71127200866349</v>
+        <v>25.0118421287477</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.46337424592321</v>
+        <v>11.57167200724109</v>
       </c>
       <c r="L16">
-        <v>6.65421679720556</v>
+        <v>8.807418392111909</v>
       </c>
       <c r="M16">
-        <v>10.39860281821313</v>
+        <v>14.011787683947</v>
       </c>
       <c r="N16">
-        <v>12.18325208071922</v>
+        <v>19.19351230656451</v>
       </c>
       <c r="O16">
-        <v>12.98166516512609</v>
+        <v>19.17212948812788</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.98403429040669</v>
+        <v>13.46122744125111</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.546034947781211</v>
+        <v>4.755698272949734</v>
       </c>
       <c r="E17">
-        <v>10.99090285799502</v>
+        <v>18.12861824206075</v>
       </c>
       <c r="F17">
-        <v>17.32899879168095</v>
+        <v>21.5646831344497</v>
       </c>
       <c r="G17">
-        <v>20.84712653370219</v>
+        <v>24.07676651054246</v>
       </c>
       <c r="H17">
-        <v>7.872405680042586</v>
+        <v>13.0048852393293</v>
       </c>
       <c r="I17">
-        <v>14.80625119768319</v>
+        <v>25.05073766189257</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.22304965715598</v>
+        <v>11.46469707402173</v>
       </c>
       <c r="L17">
-        <v>6.573141563054362</v>
+        <v>8.797116927086817</v>
       </c>
       <c r="M17">
-        <v>10.27410290886559</v>
+        <v>13.99546503622776</v>
       </c>
       <c r="N17">
-        <v>12.25182973606778</v>
+        <v>19.21401266039265</v>
       </c>
       <c r="O17">
-        <v>12.92220151728218</v>
+        <v>19.18456598392678</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.84902240863382</v>
+        <v>13.42945080676015</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.495578189368025</v>
+        <v>4.735106920263192</v>
       </c>
       <c r="E18">
-        <v>11.02066109842741</v>
+        <v>18.14079713782543</v>
       </c>
       <c r="F18">
-        <v>17.21652932519355</v>
+        <v>21.55781210908615</v>
       </c>
       <c r="G18">
-        <v>20.69760153226392</v>
+        <v>24.06571798730959</v>
       </c>
       <c r="H18">
-        <v>7.872120371801993</v>
+        <v>13.01178184680111</v>
       </c>
       <c r="I18">
-        <v>14.86172800809561</v>
+        <v>25.07346959806835</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.08305440463782</v>
+        <v>11.40255971443447</v>
       </c>
       <c r="L18">
-        <v>6.526304512595371</v>
+        <v>8.791303883269865</v>
       </c>
       <c r="M18">
-        <v>10.20213400447094</v>
+        <v>13.98623790337028</v>
       </c>
       <c r="N18">
-        <v>12.29152777731322</v>
+        <v>19.22596002281893</v>
       </c>
       <c r="O18">
-        <v>12.88906245299649</v>
+        <v>19.19210376055194</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.80304384944434</v>
+        <v>13.41870779880911</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.478383426057921</v>
+        <v>4.728102747151082</v>
       </c>
       <c r="E19">
-        <v>11.03079593228648</v>
+        <v>18.14495245832355</v>
       </c>
       <c r="F19">
-        <v>17.17854589073509</v>
+        <v>21.55557707973944</v>
       </c>
       <c r="G19">
-        <v>20.64713757772291</v>
+        <v>24.06210388748481</v>
       </c>
       <c r="H19">
-        <v>7.872114143733428</v>
+        <v>13.01414888314429</v>
       </c>
       <c r="I19">
-        <v>14.88065539950495</v>
+        <v>25.08122814691695</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.03535243107598</v>
+        <v>11.38141786841591</v>
       </c>
       <c r="L19">
-        <v>6.510412517993802</v>
+        <v>8.789355051109963</v>
       </c>
       <c r="M19">
-        <v>10.1777069495103</v>
+        <v>13.98314162335264</v>
       </c>
       <c r="N19">
-        <v>12.3050127347462</v>
+        <v>19.23003203277726</v>
       </c>
       <c r="O19">
-        <v>12.8780236161259</v>
+        <v>19.19472196326717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.00889513724315</v>
+        <v>13.46711598061332</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.55532052443227</v>
+        <v>4.759493845549601</v>
       </c>
       <c r="E20">
-        <v>10.98542341347335</v>
+        <v>18.12637927819162</v>
       </c>
       <c r="F20">
-        <v>17.34985958920153</v>
+        <v>21.56599817432958</v>
       </c>
       <c r="G20">
-        <v>20.87487652163252</v>
+        <v>24.07887149020604</v>
       </c>
       <c r="H20">
-        <v>7.872501667068496</v>
+        <v>13.00362401419437</v>
       </c>
       <c r="I20">
-        <v>14.79605241812298</v>
+        <v>25.04655988857185</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.24881583186334</v>
+        <v>11.47614798155917</v>
       </c>
       <c r="L20">
-        <v>6.58179367394882</v>
+        <v>8.798201962252634</v>
       </c>
       <c r="M20">
-        <v>10.28739389348938</v>
+        <v>13.99718596665248</v>
       </c>
       <c r="N20">
-        <v>12.24450330268793</v>
+        <v>19.21181421345059</v>
       </c>
       <c r="O20">
-        <v>12.92842127307888</v>
+        <v>19.18320228498548</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68172857909253</v>
+        <v>13.63074851192543</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.806028451360095</v>
+        <v>4.86266711734424</v>
       </c>
       <c r="E21">
-        <v>10.8371065735047</v>
+        <v>18.0661804016908</v>
       </c>
       <c r="F21">
-        <v>17.93173737765115</v>
+        <v>21.6073438627815</v>
       </c>
       <c r="G21">
-        <v>21.65077749102594</v>
+        <v>24.14398928458731</v>
       </c>
       <c r="H21">
-        <v>7.88024566286853</v>
+        <v>12.97048506133114</v>
       </c>
       <c r="I21">
-        <v>14.52204787257627</v>
+        <v>24.93438121936144</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.94481400993541</v>
+        <v>11.78707193002728</v>
       </c>
       <c r="L21">
-        <v>6.819080919272381</v>
+        <v>8.829256978164036</v>
       </c>
       <c r="M21">
-        <v>10.65147342954894</v>
+        <v>14.04628584603164</v>
       </c>
       <c r="N21">
-        <v>12.04421524159945</v>
+        <v>19.15246785918456</v>
       </c>
       <c r="O21">
-        <v>13.11052350392904</v>
+        <v>19.14909458296662</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.10714018328062</v>
+        <v>13.73827952335727</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.964002006427942</v>
+        <v>4.928328828717062</v>
       </c>
       <c r="E22">
-        <v>10.74326374155364</v>
+        <v>18.0284745866385</v>
       </c>
       <c r="F22">
-        <v>18.31621064985186</v>
+        <v>21.6390533065356</v>
       </c>
       <c r="G22">
-        <v>22.16521231445078</v>
+        <v>24.19304504053244</v>
       </c>
       <c r="H22">
-        <v>7.890291158955971</v>
+        <v>12.95048331315741</v>
       </c>
       <c r="I22">
-        <v>14.35091207684809</v>
+        <v>24.8642670301176</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.38367599757539</v>
+        <v>11.98459868305366</v>
       </c>
       <c r="L22">
-        <v>6.972053084549835</v>
+        <v>8.850525013102057</v>
       </c>
       <c r="M22">
-        <v>10.88576447837954</v>
+        <v>14.07976993616882</v>
       </c>
       <c r="N22">
-        <v>11.91551886118858</v>
+        <v>19.11506548277093</v>
       </c>
       <c r="O22">
-        <v>13.2392180997949</v>
+        <v>19.13023194632827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.88141845298871</v>
+        <v>13.68084393471173</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.880230554690903</v>
+        <v>4.893449200570663</v>
       </c>
       <c r="E23">
-        <v>10.79306563259271</v>
+        <v>18.04844939049032</v>
       </c>
       <c r="F23">
-        <v>18.11065839305862</v>
+        <v>21.62170265432785</v>
       </c>
       <c r="G23">
-        <v>21.89001773983824</v>
+        <v>24.16627182716329</v>
       </c>
       <c r="H23">
-        <v>7.884461844944587</v>
+        <v>12.96100708868446</v>
       </c>
       <c r="I23">
-        <v>14.4415031746235</v>
+        <v>24.90139572612324</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.15092381286542</v>
+        <v>11.8797067587743</v>
       </c>
       <c r="L23">
-        <v>6.890614760494127</v>
+        <v>8.839086252250993</v>
       </c>
       <c r="M23">
-        <v>10.76107383119676</v>
+        <v>14.06177329181132</v>
       </c>
       <c r="N23">
-        <v>11.98400774475024</v>
+        <v>19.13490150422869</v>
       </c>
       <c r="O23">
-        <v>13.16963606188077</v>
+        <v>19.13998542386157</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.99766059313432</v>
+        <v>13.46445354020691</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.551124606100135</v>
+        <v>4.757778487161334</v>
       </c>
       <c r="E24">
-        <v>10.98789955416902</v>
+        <v>18.12739092144837</v>
       </c>
       <c r="F24">
-        <v>17.3404268759934</v>
+        <v>21.56540200049286</v>
       </c>
       <c r="G24">
-        <v>20.86232807943828</v>
+        <v>24.07791755060019</v>
       </c>
       <c r="H24">
-        <v>7.872456616644296</v>
+        <v>13.00419362495891</v>
       </c>
       <c r="I24">
-        <v>14.80066057446871</v>
+        <v>25.04844750612837</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.23717263922726</v>
+        <v>11.47097300440408</v>
       </c>
       <c r="L24">
-        <v>6.577882754682832</v>
+        <v>8.797711076781908</v>
       </c>
       <c r="M24">
-        <v>10.28138625589427</v>
+        <v>13.99640744460041</v>
       </c>
       <c r="N24">
-        <v>12.24781473587118</v>
+        <v>19.21280762838346</v>
       </c>
       <c r="O24">
-        <v>12.92560606164196</v>
+        <v>19.18381760514122</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.98511303258661</v>
+        <v>13.23452619625492</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.171406289906487</v>
+        <v>4.604219996846442</v>
       </c>
       <c r="E25">
-        <v>11.21124885117834</v>
+        <v>18.219608374463</v>
       </c>
       <c r="F25">
-        <v>16.53090673920833</v>
+        <v>21.52499261723161</v>
       </c>
       <c r="G25">
-        <v>19.78967906756882</v>
+        <v>24.0107922411158</v>
       </c>
       <c r="H25">
-        <v>7.879721779428722</v>
+        <v>13.05789214641342</v>
       </c>
       <c r="I25">
-        <v>15.22028994592799</v>
+        <v>25.22084469081848</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.18426412924797</v>
+        <v>11.00702485261052</v>
       </c>
       <c r="L25">
-        <v>6.232941405540572</v>
+        <v>8.757380160262031</v>
       </c>
       <c r="M25">
-        <v>9.7505486597386</v>
+        <v>13.93208529967463</v>
       </c>
       <c r="N25">
-        <v>12.54211910534119</v>
+        <v>19.30281404077451</v>
       </c>
       <c r="O25">
-        <v>12.70283911686009</v>
+        <v>19.24579903704835</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.06924433320117</v>
+        <v>11.19176141360982</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.485380041099008</v>
+        <v>4.871266077566121</v>
       </c>
       <c r="E2">
-        <v>18.29363633744745</v>
+        <v>11.38701231540821</v>
       </c>
       <c r="F2">
-        <v>21.51286486881103</v>
+        <v>15.95696560069639</v>
       </c>
       <c r="G2">
-        <v>23.98580428202334</v>
+        <v>19.03569453223292</v>
       </c>
       <c r="H2">
-        <v>13.10355686862735</v>
+        <v>7.901146811424652</v>
       </c>
       <c r="I2">
-        <v>25.35969145240661</v>
+        <v>15.55524401167867</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.6471623488218</v>
+        <v>13.35321959619309</v>
       </c>
       <c r="L2">
-        <v>8.731502971933187</v>
+        <v>5.974207174859975</v>
       </c>
       <c r="M2">
-        <v>13.89023653698495</v>
+        <v>9.35096887043048</v>
       </c>
       <c r="N2">
-        <v>19.37426800582106</v>
+        <v>12.7675562007881</v>
       </c>
       <c r="O2">
-        <v>19.30405114390045</v>
+        <v>12.57209137914315</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.96024306971328</v>
+        <v>10.62652110207829</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.401481974132078</v>
+        <v>4.655541228444905</v>
       </c>
       <c r="E3">
-        <v>18.34765482451671</v>
+        <v>11.51318247363256</v>
       </c>
       <c r="F3">
-        <v>21.51568994599208</v>
+        <v>15.58378562736946</v>
       </c>
       <c r="G3">
-        <v>23.98416585303979</v>
+        <v>18.54961766486328</v>
       </c>
       <c r="H3">
-        <v>13.13832966020087</v>
+        <v>7.925041926303381</v>
       </c>
       <c r="I3">
-        <v>25.46125114090707</v>
+        <v>15.79773084749426</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.39280996146833</v>
+        <v>12.75670640846759</v>
       </c>
       <c r="L3">
-        <v>8.71640375954947</v>
+        <v>5.796957938240025</v>
       </c>
       <c r="M3">
-        <v>13.86540324609726</v>
+        <v>9.076394131241669</v>
       </c>
       <c r="N3">
-        <v>19.42594937714618</v>
+        <v>12.92596894959806</v>
       </c>
       <c r="O3">
-        <v>19.35137978003875</v>
+        <v>12.50331704814881</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.89496880521022</v>
+        <v>10.26685134171795</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.3484008653672</v>
+        <v>4.517232539491369</v>
       </c>
       <c r="E4">
-        <v>18.38272950782679</v>
+        <v>11.59413226016416</v>
       </c>
       <c r="F4">
-        <v>21.52288157414488</v>
+        <v>15.36309843362273</v>
       </c>
       <c r="G4">
-        <v>23.99070893787583</v>
+        <v>18.26427825224807</v>
       </c>
       <c r="H4">
-        <v>13.16156827907988</v>
+        <v>7.944123893148566</v>
       </c>
       <c r="I4">
-        <v>25.5273002452715</v>
+        <v>15.95405153749426</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.23181876199396</v>
+        <v>12.37468009814846</v>
       </c>
       <c r="L4">
-        <v>8.708352780309589</v>
+        <v>5.687589136506728</v>
       </c>
       <c r="M4">
-        <v>13.85192404418803</v>
+        <v>8.906570911669011</v>
       </c>
       <c r="N4">
-        <v>19.45929581293369</v>
+        <v>13.026070666808</v>
       </c>
       <c r="O4">
-        <v>19.38430473405208</v>
+        <v>12.47052113346845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.86880968361858</v>
+        <v>10.11729274951569</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.326390220291992</v>
+        <v>4.459439414335929</v>
       </c>
       <c r="E5">
-        <v>18.3975034773938</v>
+        <v>11.62799546217065</v>
       </c>
       <c r="F5">
-        <v>21.52718537314339</v>
+        <v>15.27538714211017</v>
       </c>
       <c r="G5">
-        <v>23.99527317130263</v>
+        <v>18.15141521393759</v>
       </c>
       <c r="H5">
-        <v>13.17151309837521</v>
+        <v>7.952977565511726</v>
       </c>
       <c r="I5">
-        <v>25.55514534262433</v>
+        <v>16.01959467326723</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.16505884110655</v>
+        <v>12.21515814234028</v>
       </c>
       <c r="L5">
-        <v>8.705381296979745</v>
+        <v>5.642950590494096</v>
       </c>
       <c r="M5">
-        <v>13.84688009318463</v>
+        <v>8.837158710234107</v>
       </c>
       <c r="N5">
-        <v>19.47329161990058</v>
+        <v>13.06758401432192</v>
       </c>
       <c r="O5">
-        <v>19.39869264064093</v>
+        <v>12.4594717703437</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.86449331346763</v>
+        <v>10.09228394060708</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.322712875307767</v>
+        <v>4.44975778455653</v>
       </c>
       <c r="E6">
-        <v>18.39998575511785</v>
+        <v>11.63367131147311</v>
       </c>
       <c r="F6">
-        <v>21.52798296181601</v>
+        <v>15.26095955407893</v>
       </c>
       <c r="G6">
-        <v>23.99614564389354</v>
+        <v>18.1328838412558</v>
       </c>
       <c r="H6">
-        <v>13.17319311451313</v>
+        <v>7.954511886808369</v>
       </c>
       <c r="I6">
-        <v>25.5598251842191</v>
+        <v>16.03058850542977</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.15390539862256</v>
+        <v>12.18844146602686</v>
       </c>
       <c r="L6">
-        <v>8.704906640297544</v>
+        <v>5.635536148126311</v>
       </c>
       <c r="M6">
-        <v>13.84606978143823</v>
+        <v>8.82562341398223</v>
       </c>
       <c r="N6">
-        <v>19.47564021735171</v>
+        <v>13.07452105972384</v>
       </c>
       <c r="O6">
-        <v>19.4011403341818</v>
+        <v>12.45777513046435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.89461419737818</v>
+        <v>10.2648461883943</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.348105539729014</v>
+        <v>4.516458857687225</v>
       </c>
       <c r="E7">
-        <v>18.38292680660327</v>
+        <v>11.59458540571647</v>
       </c>
       <c r="F7">
-        <v>21.52293405621753</v>
+        <v>15.36190641483411</v>
       </c>
       <c r="G7">
-        <v>23.99076280997733</v>
+        <v>18.2627421680922</v>
       </c>
       <c r="H7">
-        <v>13.1617004753798</v>
+        <v>7.944238974790127</v>
       </c>
       <c r="I7">
-        <v>25.52767200838219</v>
+        <v>15.95492805486645</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.23092301193638</v>
+        <v>12.37254411514845</v>
       </c>
       <c r="L7">
-        <v>8.708311450012204</v>
+        <v>5.686987319606981</v>
       </c>
       <c r="M7">
-        <v>13.85185419661028</v>
+        <v>8.905635496672845</v>
       </c>
       <c r="N7">
-        <v>19.45948291651339</v>
+        <v>13.02662760007021</v>
       </c>
       <c r="O7">
-        <v>19.38449484561322</v>
+        <v>12.47036282139339</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.03133285618357</v>
+        <v>10.99958286834846</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.456785743106589</v>
+        <v>4.798121166128825</v>
       </c>
       <c r="E8">
-        <v>18.31186680859607</v>
+        <v>11.42979341529094</v>
       </c>
       <c r="F8">
-        <v>21.51270716014581</v>
+        <v>15.82659967012416</v>
       </c>
       <c r="G8">
-        <v>23.98367274953587</v>
+        <v>18.86544743948548</v>
       </c>
       <c r="H8">
-        <v>13.11515476626303</v>
+        <v>7.908451493881924</v>
       </c>
       <c r="I8">
-        <v>25.39394400359402</v>
+        <v>15.63729313191649</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.56049447365032</v>
+        <v>13.15088030999505</v>
       </c>
       <c r="L8">
-        <v>8.726045154695306</v>
+        <v>5.913241041728762</v>
       </c>
       <c r="M8">
-        <v>13.88130956598467</v>
+        <v>9.256610920425375</v>
       </c>
       <c r="N8">
-        <v>19.39175341507602</v>
+        <v>12.82159325785801</v>
       </c>
       <c r="O8">
-        <v>19.31956722202699</v>
+        <v>12.54638784112624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.3114224389465</v>
+        <v>12.33386698936884</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.656874079574178</v>
+        <v>5.302563791212138</v>
       </c>
       <c r="E9">
-        <v>18.18759618227186</v>
+        <v>11.13425473142552</v>
       </c>
       <c r="F9">
-        <v>21.53587514517894</v>
+        <v>16.80042365809196</v>
       </c>
       <c r="G9">
-        <v>24.02961823933182</v>
+        <v>20.14578294376632</v>
       </c>
       <c r="H9">
-        <v>13.03885247344874</v>
+        <v>7.874689926103557</v>
       </c>
       <c r="I9">
-        <v>25.16092622732621</v>
+        <v>15.07479493715144</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.16625612659289</v>
+        <v>14.54776887366732</v>
       </c>
       <c r="L9">
-        <v>8.770380412890191</v>
+        <v>6.350004107771515</v>
       </c>
       <c r="M9">
-        <v>13.95290867793949</v>
+        <v>9.930921624801089</v>
       </c>
       <c r="N9">
-        <v>19.2716932574986</v>
+        <v>12.44164810664956</v>
       </c>
       <c r="O9">
-        <v>19.22295863257616</v>
+        <v>12.77259857514284</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.52296049736657</v>
+        <v>13.2423147964921</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.795189347689069</v>
+        <v>5.642423649940898</v>
       </c>
       <c r="E10">
-        <v>18.1054105883442</v>
+        <v>10.93397663077703</v>
       </c>
       <c r="F10">
-        <v>21.57909281739151</v>
+        <v>17.54797891953618</v>
       </c>
       <c r="G10">
-        <v>24.09969372003662</v>
+        <v>21.13866495306051</v>
       </c>
       <c r="H10">
-        <v>12.99191222888087</v>
+        <v>7.874062692545168</v>
       </c>
       <c r="I10">
-        <v>25.00745266921532</v>
+        <v>14.70055030629891</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.58379523528498</v>
+        <v>15.49055645585492</v>
       </c>
       <c r="L10">
-        <v>8.808608961329664</v>
+        <v>6.66343927080622</v>
       </c>
       <c r="M10">
-        <v>14.01367192020838</v>
+        <v>10.4127587328053</v>
       </c>
       <c r="N10">
-        <v>19.19119420456903</v>
+        <v>12.17546111041325</v>
       </c>
       <c r="O10">
-        <v>19.17076253089757</v>
+        <v>12.9885951913289</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.62010802239498</v>
+        <v>13.63895886218875</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.856083541605948</v>
+        <v>5.790124189211738</v>
       </c>
       <c r="E11">
-        <v>18.06998564500184</v>
+        <v>10.84653746300757</v>
       </c>
       <c r="F11">
-        <v>21.60439080353468</v>
+        <v>17.89377859492468</v>
       </c>
       <c r="G11">
-        <v>24.13938999321795</v>
+        <v>21.60005923983463</v>
       </c>
       <c r="H11">
-        <v>12.97253586180224</v>
+        <v>7.879457157482918</v>
       </c>
       <c r="I11">
-        <v>24.94146356133702</v>
+        <v>14.53934666089228</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.76725159796561</v>
+        <v>15.90064377393486</v>
       </c>
       <c r="L11">
-        <v>8.827187595347601</v>
+        <v>6.803823733435885</v>
       </c>
       <c r="M11">
-        <v>14.04302230893867</v>
+        <v>10.6280879960406</v>
       </c>
       <c r="N11">
-        <v>19.1562326645736</v>
+        <v>12.05706429036831</v>
       </c>
       <c r="O11">
-        <v>19.15110492015229</v>
+        <v>13.09816246622162</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.65699879069764</v>
+        <v>13.78670538835552</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.878840326636509</v>
+        <v>5.845047438282169</v>
       </c>
       <c r="E12">
-        <v>18.05685202670864</v>
+        <v>10.81395613761384</v>
       </c>
       <c r="F12">
-        <v>21.61477540980284</v>
+        <v>18.02545001272292</v>
       </c>
       <c r="G12">
-        <v>24.15553773066539</v>
+        <v>21.77604738383251</v>
       </c>
       <c r="H12">
-        <v>12.96548265045547</v>
+        <v>7.882352209365292</v>
       </c>
       <c r="I12">
-        <v>24.91702417847883</v>
+        <v>14.47965950914076</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.83575077247964</v>
+        <v>16.05318988696807</v>
       </c>
       <c r="L12">
-        <v>8.834389968619906</v>
+        <v>6.856625297671481</v>
       </c>
       <c r="M12">
-        <v>14.05437641045972</v>
+        <v>10.70900575058174</v>
       </c>
       <c r="N12">
-        <v>19.14323098406062</v>
+        <v>12.01260869188956</v>
       </c>
       <c r="O12">
-        <v>19.1442492278876</v>
+        <v>13.14131194319156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.64904957662977</v>
+        <v>13.75499555271324</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.873952870354127</v>
+        <v>5.833263757238505</v>
       </c>
       <c r="E13">
-        <v>18.0596681037258</v>
+        <v>10.82094949131666</v>
       </c>
       <c r="F13">
-        <v>21.61250320914807</v>
+        <v>17.99706150379446</v>
       </c>
       <c r="G13">
-        <v>24.15201056461905</v>
+        <v>21.73809076020172</v>
       </c>
       <c r="H13">
-        <v>12.96698904750698</v>
+        <v>7.881690235170397</v>
       </c>
       <c r="I13">
-        <v>24.92226322435664</v>
+        <v>14.49245286574096</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.82104205850964</v>
+        <v>16.0204590112563</v>
       </c>
       <c r="L13">
-        <v>8.832831441927606</v>
+        <v>6.845270130194823</v>
       </c>
       <c r="M13">
-        <v>14.05192053666958</v>
+        <v>10.69160735731295</v>
       </c>
       <c r="N13">
-        <v>19.14602058018018</v>
+        <v>12.02216629323649</v>
       </c>
       <c r="O13">
-        <v>19.14569955569397</v>
+        <v>13.13194469038811</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.62314114671401</v>
+        <v>13.65116355975007</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.857961880299221</v>
+        <v>5.794663028765177</v>
       </c>
       <c r="E14">
-        <v>18.06889950785703</v>
+        <v>10.84384633951797</v>
       </c>
       <c r="F14">
-        <v>21.60522905901447</v>
+        <v>17.90459730635811</v>
       </c>
       <c r="G14">
-        <v>24.14069617415049</v>
+        <v>21.61451318773998</v>
       </c>
       <c r="H14">
-        <v>12.97194989466812</v>
+        <v>7.879678050012314</v>
       </c>
       <c r="I14">
-        <v>24.93944191636998</v>
+        <v>14.53440861310235</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.77290675485394</v>
+        <v>15.91324905792066</v>
       </c>
       <c r="L14">
-        <v>8.827776813572646</v>
+        <v>6.80817517182409</v>
       </c>
       <c r="M14">
-        <v>14.04395164798608</v>
+        <v>10.63475798963219</v>
       </c>
       <c r="N14">
-        <v>19.15515825386256</v>
+        <v>12.05339936055532</v>
       </c>
       <c r="O14">
-        <v>19.15052910687655</v>
+        <v>13.10167898655232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.60728405763978</v>
+        <v>13.58724220656648</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.848127221136493</v>
+        <v>5.770887341880178</v>
       </c>
       <c r="E15">
-        <v>18.07459057802586</v>
+        <v>10.85794042484678</v>
       </c>
       <c r="F15">
-        <v>21.60087805011888</v>
+        <v>17.84805183601611</v>
       </c>
       <c r="G15">
-        <v>24.13391078435856</v>
+        <v>21.53897979703391</v>
       </c>
       <c r="H15">
-        <v>12.97502556489445</v>
+        <v>7.878557578417511</v>
       </c>
       <c r="I15">
-        <v>24.95003586124103</v>
+        <v>14.56028626812591</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.74329483086441</v>
+        <v>15.84722128531726</v>
       </c>
       <c r="L15">
-        <v>8.824702345811382</v>
+        <v>6.78540550367394</v>
       </c>
       <c r="M15">
-        <v>14.03910151377501</v>
+        <v>10.59985313217103</v>
       </c>
       <c r="N15">
-        <v>19.16078624515813</v>
+        <v>12.07257958169943</v>
       </c>
       <c r="O15">
-        <v>19.15356396340839</v>
+        <v>13.08335726974528</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.51662767744892</v>
+        <v>13.21605297556653</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.791168025644978</v>
+        <v>5.632630794272051</v>
       </c>
       <c r="E16">
-        <v>18.10776507596857</v>
+        <v>10.93976500113822</v>
       </c>
       <c r="F16">
-        <v>21.57755249971608</v>
+        <v>17.52548677204751</v>
       </c>
       <c r="G16">
-        <v>24.09725610040439</v>
+        <v>21.10869610584801</v>
       </c>
       <c r="H16">
-        <v>12.99321829470111</v>
+        <v>7.873827477882577</v>
       </c>
       <c r="I16">
-        <v>25.0118421287477</v>
+        <v>14.71127200866356</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.57167200724109</v>
+        <v>15.46337424592322</v>
       </c>
       <c r="L16">
-        <v>8.807418392111909</v>
+        <v>6.654216797205528</v>
       </c>
       <c r="M16">
-        <v>14.011787683947</v>
+        <v>10.39860281821312</v>
       </c>
       <c r="N16">
-        <v>19.19351230656451</v>
+        <v>12.18325208071918</v>
       </c>
       <c r="O16">
-        <v>19.17212948812788</v>
+        <v>12.98166516512603</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.46122744125111</v>
+        <v>12.98403429040669</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.755698272949734</v>
+        <v>5.546034947781293</v>
       </c>
       <c r="E17">
-        <v>18.12861824206075</v>
+        <v>10.99090285799509</v>
       </c>
       <c r="F17">
-        <v>21.5646831344497</v>
+        <v>17.32899879168094</v>
       </c>
       <c r="G17">
-        <v>24.07676651054246</v>
+        <v>20.84712653370219</v>
       </c>
       <c r="H17">
-        <v>13.0048852393293</v>
+        <v>7.87240568004268</v>
       </c>
       <c r="I17">
-        <v>25.05073766189257</v>
+        <v>14.80625119768323</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.46469707402173</v>
+        <v>15.22304965715597</v>
       </c>
       <c r="L17">
-        <v>8.797116927086817</v>
+        <v>6.573141563054379</v>
       </c>
       <c r="M17">
-        <v>13.99546503622776</v>
+        <v>10.27410290886561</v>
       </c>
       <c r="N17">
-        <v>19.21401266039265</v>
+        <v>12.25182973606781</v>
       </c>
       <c r="O17">
-        <v>19.18456598392678</v>
+        <v>12.9222015172822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.42945080676015</v>
+        <v>12.84902240863384</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.735106920263192</v>
+        <v>5.49557818936796</v>
       </c>
       <c r="E18">
-        <v>18.14079713782543</v>
+        <v>11.02066109842761</v>
       </c>
       <c r="F18">
-        <v>21.55781210908615</v>
+        <v>17.21652932519357</v>
       </c>
       <c r="G18">
-        <v>24.06571798730959</v>
+        <v>20.69760153226392</v>
       </c>
       <c r="H18">
-        <v>13.01178184680111</v>
+        <v>7.872120371801956</v>
       </c>
       <c r="I18">
-        <v>25.07346959806835</v>
+        <v>14.8617280080957</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.40255971443447</v>
+        <v>15.08305440463789</v>
       </c>
       <c r="L18">
-        <v>8.791303883269865</v>
+        <v>6.526304512595367</v>
       </c>
       <c r="M18">
-        <v>13.98623790337028</v>
+        <v>10.20213400447095</v>
       </c>
       <c r="N18">
-        <v>19.22596002281893</v>
+        <v>12.29152777731325</v>
       </c>
       <c r="O18">
-        <v>19.19210376055194</v>
+        <v>12.88906245299646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.41870779880911</v>
+        <v>12.80304384944436</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.728102747151082</v>
+        <v>5.478383426057824</v>
       </c>
       <c r="E19">
-        <v>18.14495245832355</v>
+        <v>11.03079593228661</v>
       </c>
       <c r="F19">
-        <v>21.55557707973944</v>
+        <v>17.17854589073503</v>
       </c>
       <c r="G19">
-        <v>24.06210388748481</v>
+        <v>20.64713757772287</v>
       </c>
       <c r="H19">
-        <v>13.01414888314429</v>
+        <v>7.872114143733268</v>
       </c>
       <c r="I19">
-        <v>25.08122814691695</v>
+        <v>14.88065539950489</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.38141786841591</v>
+        <v>15.03535243107604</v>
       </c>
       <c r="L19">
-        <v>8.789355051109963</v>
+        <v>6.510412517993788</v>
       </c>
       <c r="M19">
-        <v>13.98314162335264</v>
+        <v>10.1777069495103</v>
       </c>
       <c r="N19">
-        <v>19.23003203277726</v>
+        <v>12.30501273474616</v>
       </c>
       <c r="O19">
-        <v>19.19472196326717</v>
+        <v>12.87802361612582</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.46711598061332</v>
+        <v>13.0088951372432</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.759493845549601</v>
+        <v>5.55532052443231</v>
       </c>
       <c r="E20">
-        <v>18.12637927819162</v>
+        <v>10.98542341347342</v>
       </c>
       <c r="F20">
-        <v>21.56599817432958</v>
+        <v>17.34985958920152</v>
       </c>
       <c r="G20">
-        <v>24.07887149020604</v>
+        <v>20.87487652163253</v>
       </c>
       <c r="H20">
-        <v>13.00362401419437</v>
+        <v>7.872501667068502</v>
       </c>
       <c r="I20">
-        <v>25.04655988857185</v>
+        <v>14.79605241812309</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.47614798155917</v>
+        <v>15.24881583186334</v>
       </c>
       <c r="L20">
-        <v>8.798201962252634</v>
+        <v>6.581793673948784</v>
       </c>
       <c r="M20">
-        <v>13.99718596665248</v>
+        <v>10.28739389348941</v>
       </c>
       <c r="N20">
-        <v>19.21181421345059</v>
+        <v>12.24450330268793</v>
       </c>
       <c r="O20">
-        <v>19.18320228498548</v>
+        <v>12.9284212730789</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.63074851192543</v>
+        <v>13.68172857909255</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.86266711734424</v>
+        <v>5.806028451359989</v>
       </c>
       <c r="E21">
-        <v>18.0661804016908</v>
+        <v>10.83710657350483</v>
       </c>
       <c r="F21">
-        <v>21.6073438627815</v>
+        <v>17.93173737765117</v>
       </c>
       <c r="G21">
-        <v>24.14398928458731</v>
+        <v>21.65077749102583</v>
       </c>
       <c r="H21">
-        <v>12.97048506133114</v>
+        <v>7.880245662868587</v>
       </c>
       <c r="I21">
-        <v>24.93438121936144</v>
+        <v>14.52204787257635</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.78707193002728</v>
+        <v>15.94481400993545</v>
       </c>
       <c r="L21">
-        <v>8.829256978164036</v>
+        <v>6.819080919272367</v>
       </c>
       <c r="M21">
-        <v>14.04628584603164</v>
+        <v>10.65147342954896</v>
       </c>
       <c r="N21">
-        <v>19.15246785918456</v>
+        <v>12.04421524159945</v>
       </c>
       <c r="O21">
-        <v>19.14909458296662</v>
+        <v>13.11052350392905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.73827952335727</v>
+        <v>14.1071401832806</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.928328828717062</v>
+        <v>5.964002006427923</v>
       </c>
       <c r="E22">
-        <v>18.0284745866385</v>
+        <v>10.74326374155357</v>
       </c>
       <c r="F22">
-        <v>21.6390533065356</v>
+        <v>18.31621064985185</v>
       </c>
       <c r="G22">
-        <v>24.19304504053244</v>
+        <v>22.16521231445075</v>
       </c>
       <c r="H22">
-        <v>12.95048331315741</v>
+        <v>7.890291158955928</v>
       </c>
       <c r="I22">
-        <v>24.8642670301176</v>
+        <v>14.35091207684807</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.98459868305366</v>
+        <v>16.38367599757541</v>
       </c>
       <c r="L22">
-        <v>8.850525013102057</v>
+        <v>6.972053084549818</v>
       </c>
       <c r="M22">
-        <v>14.07976993616882</v>
+        <v>10.88576447837951</v>
       </c>
       <c r="N22">
-        <v>19.11506548277093</v>
+        <v>11.91551886118858</v>
       </c>
       <c r="O22">
-        <v>19.13023194632827</v>
+        <v>13.23921809979486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.68084393471173</v>
+        <v>13.88141845298874</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.893449200570663</v>
+        <v>5.88023055469091</v>
       </c>
       <c r="E23">
-        <v>18.04844939049032</v>
+        <v>10.79306563259284</v>
       </c>
       <c r="F23">
-        <v>21.62170265432785</v>
+        <v>18.11065839305862</v>
       </c>
       <c r="G23">
-        <v>24.16627182716329</v>
+        <v>21.89001773983819</v>
       </c>
       <c r="H23">
-        <v>12.96100708868446</v>
+        <v>7.884461844944698</v>
       </c>
       <c r="I23">
-        <v>24.90139572612324</v>
+        <v>14.44150317462361</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.8797067587743</v>
+        <v>16.15092381286548</v>
       </c>
       <c r="L23">
-        <v>8.839086252250993</v>
+        <v>6.890614760494111</v>
       </c>
       <c r="M23">
-        <v>14.06177329181132</v>
+        <v>10.76107383119677</v>
       </c>
       <c r="N23">
-        <v>19.13490150422869</v>
+        <v>11.98400774475027</v>
       </c>
       <c r="O23">
-        <v>19.13998542386157</v>
+        <v>13.16963606188075</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.46445354020691</v>
+        <v>12.99766059313433</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.757778487161334</v>
+        <v>5.551124606100137</v>
       </c>
       <c r="E24">
-        <v>18.12739092144837</v>
+        <v>10.98789955416909</v>
       </c>
       <c r="F24">
-        <v>21.56540200049286</v>
+        <v>17.34042687599335</v>
       </c>
       <c r="G24">
-        <v>24.07791755060019</v>
+        <v>20.86232807943825</v>
       </c>
       <c r="H24">
-        <v>13.00419362495891</v>
+        <v>7.872456616644187</v>
       </c>
       <c r="I24">
-        <v>25.04844750612837</v>
+        <v>14.80066057446865</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.47097300440408</v>
+        <v>15.23717263922731</v>
       </c>
       <c r="L24">
-        <v>8.797711076781908</v>
+        <v>6.577882754682848</v>
       </c>
       <c r="M24">
-        <v>13.99640744460041</v>
+        <v>10.28138625589425</v>
       </c>
       <c r="N24">
-        <v>19.21280762838346</v>
+        <v>12.24781473587118</v>
       </c>
       <c r="O24">
-        <v>19.18381760514122</v>
+        <v>12.9256060616419</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23452619625492</v>
+        <v>11.98511303258663</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.604219996846442</v>
+        <v>5.17140628990648</v>
       </c>
       <c r="E25">
-        <v>18.219608374463</v>
+        <v>11.21124885117841</v>
       </c>
       <c r="F25">
-        <v>21.52499261723161</v>
+        <v>16.53090673920827</v>
       </c>
       <c r="G25">
-        <v>24.0107922411158</v>
+        <v>19.78967906756871</v>
       </c>
       <c r="H25">
-        <v>13.05789214641342</v>
+        <v>7.879721779428768</v>
       </c>
       <c r="I25">
-        <v>25.22084469081848</v>
+        <v>15.220289945928</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.00702485261052</v>
+        <v>14.184264129248</v>
       </c>
       <c r="L25">
-        <v>8.757380160262031</v>
+        <v>6.232941405540568</v>
       </c>
       <c r="M25">
-        <v>13.93208529967463</v>
+        <v>9.750548659738605</v>
       </c>
       <c r="N25">
-        <v>19.30281404077451</v>
+        <v>12.54211910534119</v>
       </c>
       <c r="O25">
-        <v>19.24579903704835</v>
+        <v>12.70283911686005</v>
       </c>
     </row>
   </sheetData>
